--- a/july2025/13-7-2025/mariam/mfb-completed.xlsx
+++ b/july2025/13-7-2025/mariam/mfb-completed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\13-7-2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyFitnessBag\Desktop\myfitnessbag\july2025\13-7-2025\mariam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF2FB4C-7CB0-4996-9691-BE65AD1D532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02882FAF-FC86-44C1-AA34-F9163B34C813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Modification Date</t>
   </si>
@@ -115,18 +115,6 @@
     <t>01500061116</t>
   </si>
   <si>
-    <t>70895</t>
-  </si>
-  <si>
-    <t>MFB_Return</t>
-  </si>
-  <si>
-    <t>يوسف اكرامي</t>
-  </si>
-  <si>
-    <t>01030145667</t>
-  </si>
-  <si>
     <t>70893</t>
   </si>
   <si>
@@ -163,18 +151,6 @@
     <t>01114634154</t>
   </si>
   <si>
-    <t>70490</t>
-  </si>
-  <si>
-    <t>احمد ماهر</t>
-  </si>
-  <si>
-    <t>01111488993</t>
-  </si>
-  <si>
-    <t>kashier_valu</t>
-  </si>
-  <si>
     <t>70482</t>
   </si>
   <si>
@@ -191,63 +167,6 @@
   </si>
   <si>
     <t>01114144670</t>
-  </si>
-  <si>
-    <t>70311</t>
-  </si>
-  <si>
-    <t>حارس صلاح</t>
-  </si>
-  <si>
-    <t>01552025477</t>
-  </si>
-  <si>
-    <t>70066</t>
-  </si>
-  <si>
-    <t>نهي احمد</t>
-  </si>
-  <si>
-    <t>01015793427</t>
-  </si>
-  <si>
-    <t>70062</t>
-  </si>
-  <si>
-    <t>Karim Ateek</t>
-  </si>
-  <si>
-    <t>+201066060677</t>
-  </si>
-  <si>
-    <t>70060</t>
-  </si>
-  <si>
-    <t>Nelly Rashad</t>
-  </si>
-  <si>
-    <t>01149909075</t>
-  </si>
-  <si>
-    <t>kashier_card</t>
-  </si>
-  <si>
-    <t>70045</t>
-  </si>
-  <si>
-    <t>خديجة نبيل</t>
-  </si>
-  <si>
-    <t>+201096224914</t>
-  </si>
-  <si>
-    <t>69784</t>
-  </si>
-  <si>
-    <t>Ayman Kotb</t>
-  </si>
-  <si>
-    <t>+201003838353</t>
   </si>
 </sst>
 </file>
@@ -298,27 +217,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,633 +538,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:I21"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>45851.645914351997</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="6">
-        <v>59</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="4">
+        <v>59</v>
+      </c>
+      <c r="I2" s="4">
         <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>45851.646226851997</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6">
-        <v>59</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4">
+        <v>59</v>
+      </c>
+      <c r="I3" s="4">
         <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>45850.636678240997</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="6">
-        <v>59</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4">
+        <v>59</v>
+      </c>
+      <c r="I4" s="4">
         <v>1278</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>45850.636678240997</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6">
-        <v>59</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="4">
+        <v>59</v>
+      </c>
+      <c r="I5" s="4">
         <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>45850.636689815001</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="6">
-        <v>59</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="G6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4">
         <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>45850.636701388998</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="6">
-        <v>59</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4">
         <v>895</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>45850.636817129998</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="5">
+        <v>45850.636643518999</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4">
+        <v>59</v>
+      </c>
+      <c r="I8" s="4">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45850.636655093003</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="6">
-        <v>59</v>
-      </c>
-      <c r="I8" s="6">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4">
+        <v>489.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45850.636666667</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4">
+        <v>59</v>
+      </c>
+      <c r="I10" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45850.636620370002</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <v>59</v>
+      </c>
+      <c r="I11" s="4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45850.636631943999</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4">
+        <v>59</v>
+      </c>
+      <c r="I12" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>45850.636643518999</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="6">
-        <v>59</v>
-      </c>
-      <c r="I9" s="6">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>45850.636655093003</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="6">
-        <v>59</v>
-      </c>
-      <c r="I10" s="6">
-        <v>489.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>45850.636666667</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6">
-        <v>59</v>
-      </c>
-      <c r="I11" s="6">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>45850.636620370002</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="6">
-        <v>59</v>
-      </c>
-      <c r="I12" s="6">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>45850.636817129998</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="6">
-        <v>59</v>
-      </c>
-      <c r="I13" s="6">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>45850.636631943999</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="6">
-        <v>59</v>
-      </c>
-      <c r="I14" s="6">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>45850.636643518999</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="6">
-        <v>59</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4">
         <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>45850.650254630003</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="6">
-        <v>59</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>45850.636805556001</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="6">
-        <v>59</v>
-      </c>
-      <c r="I17" s="6">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>45850.636851852003</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="6">
-        <v>59</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>45850.650254630003</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="6">
-        <v>59</v>
-      </c>
-      <c r="I19" s="6">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>45850.636863426</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="6">
-        <v>59</v>
-      </c>
-      <c r="I20" s="6">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>45850.636828704002</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="6">
-        <v>59</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1159</v>
       </c>
     </row>
   </sheetData>
